--- a/BACKLOG2 (1) USINAGEM (1) (1).xlsx
+++ b/BACKLOG2 (1) USINAGEM (1) (1).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jserg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJETO INTEGRADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727AA9FC-1381-411D-96C7-3FFA1FEFE7F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858F7F86-7860-40EB-AC67-D631947CA86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{419D32DA-722E-44A1-A6FB-EBFE0991674A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{419D32DA-722E-44A1-A6FB-EBFE0991674A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
   <si>
     <t>Rank</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Média</t>
   </si>
   <si>
-    <t>Como gestor , na qualidade de tomador de serviço, quero os principais itens dessa cadeia específica.</t>
-  </si>
-  <si>
     <t>Como prestador, conforme oferecemos nessa segunda Sprint, faremos análises dos dados como referência o site oficial de "COMEX STAT" do Governo Federal.</t>
   </si>
   <si>
@@ -117,13 +114,19 @@
     <t>Sprint com a Dashboard das Importações e Exportações com gráficos, período determinado dos três municípios e os principais países parceiros comerciais.</t>
   </si>
   <si>
-    <t>Altal</t>
-  </si>
-  <si>
-    <t>Como tomador, faço levantamento pela tabela SH4 o comércio exeterior dos municípios citados</t>
-  </si>
-  <si>
-    <t>Como tomador do serviço, faço modelagem dos dados da tabela SH4 pelo Python e Colab.</t>
+    <t>Como gestor, na qualidade de tomador de serviço, quero os principais itens dessa cadeia específica.</t>
+  </si>
+  <si>
+    <t>Como cliente, quero um painel interativo, que mostre o valor total importado e exportado por período, cidade, produto do segmento de usinagem, para que eu possa entender rapidamente o tamanho desse mercado e se os municípios são importadores e exportadores.</t>
+  </si>
+  <si>
+    <t>Como tomador, faço levantamento pela tabela SH4 o comércio exterior dos municípios citados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como cliente solicito levantamento de dados do Comércio Exterior e suas diferenças dos anos com a Pandemia, a recuperação pós pandemias e se está havendo uma estabilidade.</t>
+  </si>
+  <si>
+    <t>Como tomador de serviço, com levantamento dos nossos dados será possível uma interpretação dos mesmos para análise no pós pandemia.</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E262A66-3740-48F1-A7FF-2FFDB42BA460}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="14">
         <v>45910</v>
@@ -670,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="14">
         <v>45910</v>
@@ -693,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="14">
         <v>45910</v>
@@ -710,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="14">
         <v>45910</v>
@@ -730,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="14">
         <v>45918</v>
@@ -750,10 +753,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="14">
         <v>45926</v>
@@ -770,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="14">
         <v>45917</v>
@@ -790,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="14">
         <v>45933</v>
@@ -810,10 +813,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="14">
         <v>45940</v>
@@ -839,22 +842,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="24">
-        <v>46003</v>
+        <v>45942</v>
       </c>
       <c r="F14" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -862,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="24">
         <v>46006</v>
@@ -882,13 +885,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="24">
-        <v>45712</v>
+        <v>45956</v>
       </c>
       <c r="F16" s="19">
         <v>2</v>
@@ -899,13 +902,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="24">
         <v>45958</v>
@@ -919,16 +922,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="19">
         <v>2</v>
@@ -939,22 +942,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
@@ -962,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="24">
         <v>45962</v>
@@ -974,35 +977,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="24">
+        <v>45970</v>
+      </c>
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>17</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="22">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -1012,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="22">
         <v>3</v>
@@ -1032,13 +1035,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="F24" s="22">
         <v>3</v>
@@ -1052,15 +1055,35 @@
         <v>8</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>21</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="22">
         <v>3</v>
       </c>
     </row>
@@ -1070,20 +1093,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8b4ed022-6705-4cac-96bf-fa54c8b5900a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,25 +1298,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9CADDE-0C5B-4E61-A49C-7003F253D036}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2785A2CB-6C0F-4114-8953-D36CD50373F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2785A2CB-6C0F-4114-8953-D36CD50373F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9CADDE-0C5B-4E61-A49C-7003F253D036}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b4ed022-6705-4cac-96bf-fa54c8b5900a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
